--- a/foxi_shuangpin_keyboard.xlsx
+++ b/foxi_shuangpin_keyboard.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/development/ime/shuangpin-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B2D4C0-8E39-4242-8FA7-9A3700D1F569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE656CBE-7CE8-7C4D-91F4-877EB0F462F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="3520" windowWidth="24760" windowHeight="16000" tabRatio="806" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13640" yWindow="1980" windowWidth="24760" windowHeight="16000" tabRatio="806" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自然码" sheetId="20" r:id="rId1"/>
-    <sheet name="佛系双拼" sheetId="18" r:id="rId2"/>
-    <sheet name="搜狗双拼" sheetId="2" r:id="rId3"/>
-    <sheet name="微软双拼" sheetId="3" r:id="rId4"/>
-    <sheet name="小鹤双拼" sheetId="4" r:id="rId5"/>
-    <sheet name="智能ABC" sheetId="5" r:id="rId6"/>
-    <sheet name="拼音加加" sheetId="17" r:id="rId7"/>
-    <sheet name="紫光双拼" sheetId="6" r:id="rId8"/>
-    <sheet name="国标双拼" sheetId="7" r:id="rId9"/>
-    <sheet name="小浪双拼" sheetId="8" r:id="rId10"/>
-    <sheet name="大牛双拼" sheetId="10" r:id="rId11"/>
-    <sheet name="键道双拼3" sheetId="11" r:id="rId12"/>
-    <sheet name="键道双拼6" sheetId="12" r:id="rId13"/>
-    <sheet name="星空双拼" sheetId="13" r:id="rId14"/>
-    <sheet name="开源小鹳" sheetId="9" r:id="rId15"/>
-    <sheet name="小月双拼" sheetId="14" r:id="rId16"/>
-    <sheet name="韵标块拼" sheetId="15" r:id="rId17"/>
-    <sheet name="C双拼" sheetId="16" r:id="rId18"/>
+    <sheet name="佛系双拼2" sheetId="18" r:id="rId2"/>
+    <sheet name="佛系双拼3" sheetId="21" r:id="rId3"/>
+    <sheet name="搜狗双拼" sheetId="2" r:id="rId4"/>
+    <sheet name="微软双拼" sheetId="3" r:id="rId5"/>
+    <sheet name="小鹤双拼" sheetId="4" r:id="rId6"/>
+    <sheet name="智能ABC" sheetId="5" r:id="rId7"/>
+    <sheet name="拼音加加" sheetId="17" r:id="rId8"/>
+    <sheet name="紫光双拼" sheetId="6" r:id="rId9"/>
+    <sheet name="国标双拼" sheetId="7" r:id="rId10"/>
+    <sheet name="小浪双拼" sheetId="8" r:id="rId11"/>
+    <sheet name="大牛双拼" sheetId="10" r:id="rId12"/>
+    <sheet name="键道双拼3" sheetId="11" r:id="rId13"/>
+    <sheet name="键道双拼6" sheetId="12" r:id="rId14"/>
+    <sheet name="星空双拼" sheetId="13" r:id="rId15"/>
+    <sheet name="开源小鹳" sheetId="9" r:id="rId16"/>
+    <sheet name="小月双拼" sheetId="14" r:id="rId17"/>
+    <sheet name="韵标块拼" sheetId="15" r:id="rId18"/>
+    <sheet name="C双拼" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="235">
   <si>
     <t>Q</t>
   </si>
@@ -737,10 +738,16 @@
     <t>eq</t>
   </si>
   <si>
-    <t>佛系双拼</t>
-  </si>
-  <si>
     <t>自然码</t>
+  </si>
+  <si>
+    <t>佛系双拼2</t>
+  </si>
+  <si>
+    <t>aj</t>
+  </si>
+  <si>
+    <t>佛系双拼3</t>
   </si>
 </sst>
 </file>
@@ -1198,6 +1205,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,9 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1976,12 +1983,12 @@
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
+      <c r="T10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
@@ -2005,10 +2012,10 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -2188,6 +2195,7 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="T10:W11"/>
@@ -2198,26 +2206,21 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -2228,6 +2231,10 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -2250,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -2305,9 +2312,7 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2323,7 +2328,9 @@
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2343,10 +2350,12 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
@@ -2354,15 +2363,15 @@
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23" t="s">
@@ -2374,11 +2383,11 @@
       </c>
       <c r="R4" s="23"/>
       <c r="S4" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="2"/>
@@ -2386,9 +2395,13 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -2397,7 +2410,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -2405,7 +2418,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -2466,27 +2479,27 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
@@ -2494,7 +2507,7 @@
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
@@ -2506,29 +2519,25 @@
       <c r="C8" s="2"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="R8" s="24"/>
       <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
@@ -2554,7 +2563,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>52</v>
@@ -2580,39 +2589,39 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="23" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" s="26"/>
+      <c r="U10" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -2620,30 +2629,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="O11" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -2667,10 +2676,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -2691,31 +2700,31 @@
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -2730,31 +2739,31 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2775,13 +2784,13 @@
         <v>20</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2886,12 +2895,12 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -2946,7 +2955,9 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2962,9 +2973,7 @@
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2974,9 +2983,7 @@
       <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="T3" s="5"/>
       <c r="U3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2986,12 +2993,10 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
@@ -3019,7 +3024,7 @@
       </c>
       <c r="R4" s="23"/>
       <c r="S4" s="23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
@@ -3031,13 +3036,9 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -3045,16 +3046,16 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -3068,9 +3069,7 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3121,27 +3120,27 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
@@ -3159,29 +3158,27 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
@@ -3233,39 +3230,39 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="23" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="V10" s="26"/>
+      <c r="U10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3275,28 +3272,28 @@
       <c r="D11" s="2"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3320,10 +3317,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -3338,37 +3335,37 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -3383,31 +3380,31 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3428,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3544,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -3591,21 +3588,15 @@
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3621,15 +3612,21 @@
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="U3" s="4" t="s">
         <v>11</v>
       </c>
@@ -3640,37 +3637,43 @@
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="23" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="S4" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="2"/>
@@ -3678,10 +3681,12 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
@@ -3690,19 +3695,19 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="M5" s="24"/>
       <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="O5" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="S5" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="T5" s="24"/>
-      <c r="U5" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="U5" s="24"/>
       <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
@@ -3713,7 +3718,9 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3725,9 +3732,7 @@
       <c r="J6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="4" t="s">
         <v>30</v>
       </c>
@@ -3739,9 +3744,7 @@
       <c r="P6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="4" t="s">
         <v>33</v>
       </c>
@@ -3759,38 +3762,40 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
@@ -3802,28 +3807,30 @@
       <c r="C8" s="2"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="P8" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="S8" s="24"/>
       <c r="T8" s="24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
@@ -3849,7 +3856,9 @@
       <c r="K9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>52</v>
       </c>
@@ -3874,37 +3883,39 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="23" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="V10" s="26"/>
+      <c r="U10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3918,26 +3929,24 @@
         <v>46</v>
       </c>
       <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="O11" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3961,10 +3970,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -3979,40 +3988,38 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="10">
-        <v>3</v>
-      </c>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="44.25" customHeight="1">
@@ -4026,38 +4033,38 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="44.25" customHeight="1">
@@ -4071,13 +4078,13 @@
         <v>20</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -4187,7 +4194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -4283,7 +4290,7 @@
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="23" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
@@ -4291,15 +4298,15 @@
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
@@ -4313,7 +4320,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="2"/>
@@ -4321,9 +4328,7 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
         <v>21</v>
@@ -4345,7 +4350,9 @@
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
+      <c r="U5" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
@@ -4405,27 +4412,27 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
@@ -4433,7 +4440,7 @@
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
@@ -4446,31 +4453,27 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="N8" s="24"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
@@ -4529,7 +4532,7 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -4543,15 +4546,15 @@
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4565,7 +4568,9 @@
         <v>46</v>
       </c>
       <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -4576,13 +4581,13 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4606,10 +4611,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -4624,25 +4629,25 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
@@ -4653,10 +4658,10 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -4671,7 +4676,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
@@ -4689,13 +4694,13 @@
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -4722,7 +4727,7 @@
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -4832,6 +4837,651 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="11.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:24" ht="19.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="V10" s="27"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="10">
+        <v>6</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.5" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -5203,10 +5853,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5234,8 +5884,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5259,10 +5909,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -5306,8 +5956,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="21" t="s">
         <v>159</v>
       </c>
@@ -5484,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -5846,10 +6496,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5877,8 +6527,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5902,10 +6552,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -5916,49 +6566,49 @@
       <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="37" t="s">
         <v>97</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="37" t="s">
         <v>98</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="R13" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="37" t="s">
         <v>99</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -5969,46 +6619,46 @@
       <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="37" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="37" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="37" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="37" t="s">
         <v>103</v>
       </c>
       <c r="T14" s="3"/>
@@ -6024,19 +6674,19 @@
       <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6157,7 +6807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -6515,10 +7165,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
@@ -6548,8 +7198,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
     </row>
@@ -6573,10 +7223,10 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
     </row>
@@ -6620,8 +7270,8 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
     </row>
@@ -6796,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -7166,10 +7816,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7201,8 +7851,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7226,10 +7876,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -7273,8 +7923,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -7449,7 +8099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -7833,10 +8483,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7872,8 +8522,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7897,8 +8547,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -7950,8 +8600,8 @@
         <v>206</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -8138,8 +8788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9582CB-AB40-4E8F-BECE-A0A747679EA1}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -8227,11 +8877,11 @@
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="23" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
@@ -8243,7 +8893,7 @@
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
@@ -8355,11 +9005,11 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
@@ -8367,19 +9017,19 @@
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
@@ -8396,7 +9046,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -8467,11 +9117,11 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
@@ -8479,7 +9129,7 @@
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
@@ -8487,27 +9137,27 @@
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="T10" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -8522,10 +9172,10 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -8564,7 +9214,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
@@ -8582,7 +9232,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
@@ -8609,7 +9259,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
@@ -8627,7 +9277,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
@@ -8654,7 +9304,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>59</v>
@@ -8768,6 +9418,638 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95317F0D-11B9-EA4E-B853-1119C7410D26}">
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="11.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:24" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.5" customHeight="1" thickTop="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -9133,10 +10415,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9160,8 +10442,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9185,10 +10467,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -9232,649 +10514,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" style="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="11.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="4.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -10050,7 +10691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -10148,7 +10789,7 @@
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
@@ -10156,7 +10797,7 @@
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
@@ -10164,7 +10805,7 @@
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23" t="s">
@@ -10180,7 +10821,7 @@
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="2"/>
@@ -10190,17 +10831,21 @@
       <c r="B5" s="2"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
@@ -10272,7 +10917,7 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
@@ -10292,14 +10937,16 @@
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="V7" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
@@ -10312,7 +10959,9 @@
         <v>45</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10322,13 +10971,9 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="R8" s="24"/>
       <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
@@ -10380,15 +11025,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
@@ -10396,11 +11041,11 @@
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
@@ -10409,10 +11054,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="26"/>
+      <c r="U10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -10422,14 +11067,12 @@
       <c r="D11" s="2"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -10440,8 +11083,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -10465,10 +11108,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -10483,37 +11126,37 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -10528,31 +11171,31 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -10579,15 +11222,15 @@
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="28" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="28"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -10689,10 +11332,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10744,9 +11387,7 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
@@ -10762,11 +11403,15 @@
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
@@ -10781,11 +11426,11 @@
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
@@ -10793,15 +11438,15 @@
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23" t="s">
@@ -10817,7 +11462,7 @@
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="2"/>
@@ -10831,12 +11476,10 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -10860,9 +11503,7 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
@@ -10913,7 +11554,7 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
@@ -10933,11 +11574,11 @@
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
@@ -10953,9 +11594,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10965,9 +11604,13 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
@@ -10993,7 +11636,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>52</v>
@@ -11019,39 +11662,39 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="V10" s="26"/>
+      <c r="U10" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11061,28 +11704,26 @@
       <c r="D11" s="2"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11106,10 +11747,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="V12" s="27"/>
+      <c r="U12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -11124,37 +11765,37 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -11169,31 +11810,31 @@
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -11220,15 +11861,15 @@
         <v>59</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11330,6 +11971,647 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="11.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:24" ht="19.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10" s="27"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="44.25" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.5" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE87C697-1CF9-412A-8440-BE9F3DB8DE1D}">
   <dimension ref="B1:X16"/>
   <sheetViews>
@@ -11423,77 +12705,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="31" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="31" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="33"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
@@ -11545,71 +12827,71 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="33"/>
+      <c r="N7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="33"/>
+      <c r="P7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="31" t="s">
+      <c r="S7" s="33"/>
+      <c r="T7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -11657,40 +12939,40 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="31" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="31" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="31" t="s">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="32"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="V10" s="35"/>
+      <c r="V10" s="36"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
@@ -11698,30 +12980,30 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
@@ -11745,10 +13027,10 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="33" t="s">
+      <c r="U12" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="V12" s="33"/>
+      <c r="V12" s="34"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
@@ -11792,8 +13074,8 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
@@ -11864,10 +13146,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="34"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -11968,7 +13250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
@@ -12328,10 +13610,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -12359,8 +13641,8 @@
       <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -12384,10 +13666,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="27"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -12431,8 +13713,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -12605,647 +13887,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" style="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="11.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
-    <col min="25" max="1024" width="4.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="44.25" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/foxi_shuangpin_keyboard.xlsx
+++ b/foxi_shuangpin_keyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/development/ime/shuangpin-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FCE9E-F712-4C4E-B59C-81BA541FE8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A844EF-FA7B-BF45-8FE5-870AD3799A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3620" windowWidth="32900" windowHeight="16000" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="3620" windowWidth="32900" windowHeight="16000" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自然码" sheetId="20" r:id="rId1"/>
@@ -1221,17 +1221,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1239,17 +1248,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1262,15 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1792,34 +1792,34 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -1914,30 +1914,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -2014,39 +2014,39 @@
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -2186,10 +2186,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2226,6 +2226,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -2242,46 +2282,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2426,30 +2426,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -2548,32 +2548,32 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -2647,10 +2647,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -2658,28 +2658,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -2703,10 +2703,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -2750,8 +2750,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -2822,10 +2822,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2862,56 +2862,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -2919,6 +2869,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3065,34 +3065,34 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3187,30 +3187,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -3288,10 +3288,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3299,30 +3299,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3346,10 +3346,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -3393,8 +3393,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -3465,10 +3465,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3505,56 +3505,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -3562,6 +3512,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3706,30 +3706,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3824,34 +3824,34 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -3929,10 +3929,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3940,30 +3940,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3987,10 +3987,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -4034,8 +4034,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -4106,10 +4106,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4146,56 +4146,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4203,6 +4153,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4351,34 +4351,34 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -4475,36 +4475,36 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -4582,10 +4582,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4593,30 +4593,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4640,10 +4640,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -4687,8 +4687,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -4759,10 +4759,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4799,56 +4799,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4856,6 +4806,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4998,32 +4998,32 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="26"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -5120,34 +5120,34 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -5221,10 +5221,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5232,32 +5232,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5281,10 +5281,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -5328,8 +5328,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="10">
         <v>3</v>
       </c>
@@ -5402,10 +5402,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5442,56 +5442,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -5499,6 +5449,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5641,32 +5641,32 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -5763,38 +5763,38 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -5868,10 +5868,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5879,30 +5879,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5926,10 +5926,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -5973,8 +5973,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="10">
         <v>6</v>
       </c>
@@ -6047,10 +6047,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6087,56 +6087,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6144,6 +6094,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6294,30 +6294,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -6416,34 +6416,34 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -6523,10 +6523,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -6534,28 +6534,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -6579,10 +6579,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -6626,8 +6626,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="21" t="s">
         <v>159</v>
       </c>
@@ -6700,10 +6700,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6740,56 +6740,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6797,6 +6747,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6943,30 +6943,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -7061,34 +7061,34 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -7166,10 +7166,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7177,28 +7177,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7222,10 +7222,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -7236,49 +7236,49 @@
       <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="40" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="40" t="s">
         <v>97</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="40" t="s">
         <v>98</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="40" t="s">
         <v>99</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -7289,46 +7289,46 @@
       <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="40" t="s">
         <v>101</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="40" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="40" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="40" t="s">
         <v>103</v>
       </c>
       <c r="T14" s="3"/>
@@ -7344,27 +7344,27 @@
       <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="40" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -7401,46 +7401,20 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="U10:V11"/>
@@ -7456,20 +7430,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7616,28 +7616,28 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="13"/>
       <c r="X5" s="14"/>
     </row>
@@ -7732,32 +7732,32 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -7835,10 +7835,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
@@ -7846,30 +7846,30 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
     </row>
@@ -7893,10 +7893,10 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
     </row>
@@ -7940,8 +7940,8 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
     </row>
@@ -8012,10 +8012,10 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -8052,56 +8052,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8109,6 +8059,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8255,32 +8255,32 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -8377,38 +8377,38 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -8486,10 +8486,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -8497,32 +8497,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8546,10 +8546,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -8593,8 +8593,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -8665,10 +8665,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8705,56 +8705,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8762,6 +8712,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8906,32 +8906,32 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -9001,10 +9001,10 @@
         <v>59</v>
       </c>
       <c r="K7" s="23"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="23" t="s">
         <v>43</v>
       </c>
@@ -9028,28 +9028,28 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -9126,43 +9126,43 @@
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -9302,10 +9302,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9342,6 +9342,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -9358,46 +9398,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9545,36 +9545,36 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="26"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -9671,46 +9671,46 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26" t="s">
+      <c r="U8" s="24"/>
+      <c r="V8" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="W8" s="26"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -9788,10 +9788,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9799,36 +9799,36 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9852,8 +9852,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -9905,8 +9905,8 @@
         <v>206</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -9985,10 +9985,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -10025,56 +10025,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -10082,6 +10032,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10226,28 +10226,28 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -10344,32 +10344,32 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -10446,41 +10446,41 @@
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -10620,10 +10620,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -10660,6 +10660,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -10676,46 +10716,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10726,7 +10726,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="S4" sqref="S4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -10777,9 +10777,7 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
@@ -10795,11 +10793,15 @@
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
@@ -10858,30 +10860,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -10891,9 +10893,6 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
@@ -10951,10 +10950,10 @@
         <v>59</v>
       </c>
       <c r="K7" s="23"/>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="23" t="s">
         <v>61</v>
       </c>
@@ -10978,30 +10977,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -11024,7 +11023,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>52</v>
@@ -11078,43 +11077,43 @@
       </c>
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
@@ -11254,10 +11253,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11294,6 +11293,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="T10:W11"/>
@@ -11310,46 +11349,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11494,36 +11493,36 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -11620,30 +11619,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -11721,10 +11720,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11732,24 +11731,24 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11773,10 +11772,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -11820,8 +11819,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -11892,10 +11891,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11932,56 +11931,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -11989,6 +11938,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12135,34 +12134,34 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -12259,30 +12258,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -12360,10 +12359,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -12371,26 +12370,26 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -12414,10 +12413,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -12461,8 +12460,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -12533,10 +12532,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -12573,56 +12572,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -12630,6 +12579,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12776,30 +12775,30 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -12894,32 +12893,32 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -12997,10 +12996,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -13008,28 +13007,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -13053,10 +13052,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -13100,8 +13099,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -13172,10 +13171,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="29" t="s">
+      <c r="O15" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="29"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -13212,56 +13211,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -13269,6 +13218,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13413,32 +13412,32 @@
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -13535,30 +13534,30 @@
     <row r="8" spans="2:24" ht="44.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1">
@@ -13636,10 +13635,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -13647,30 +13646,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -13694,10 +13693,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -13741,8 +13740,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -13813,10 +13812,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -13853,56 +13852,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -13910,6 +13859,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -14011,77 +14010,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1">
       <c r="B4" s="16"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="30" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="30" t="s">
+      <c r="T4" s="36"/>
+      <c r="U4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="31"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="32" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
@@ -14133,71 +14132,71 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="36"/>
+      <c r="R7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="36"/>
+      <c r="T7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="32" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1">
@@ -14245,40 +14244,40 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="30" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="30" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="30" t="s">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="31"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="36" t="s">
+      <c r="U10" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="V10" s="36"/>
+      <c r="V10" s="39"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
@@ -14286,30 +14285,30 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="32" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="32" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
@@ -14333,10 +14332,10 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="34" t="s">
+      <c r="U12" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="V12" s="34"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
@@ -14380,8 +14379,8 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
@@ -14452,10 +14451,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="35"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -14492,47 +14491,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -14549,6 +14507,47 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
